--- a/data/trans_orig/IP07B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ADDCB07-8C3F-4A6F-899E-C0E04A16A564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57CC854-258B-47FB-B1D9-0B12098AE0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1EDAAC48-CF8B-4419-875F-FFB45318B6FB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CE1AFB65-6B22-42FF-BB62-875937019ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,28 +71,193 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
     <t>Buena</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
+    <t>Regular</t>
   </si>
   <si>
     <t>Mala</t>
   </si>
   <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>Regular</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>23,04%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
   </si>
   <si>
     <t>18,71%</t>
@@ -101,9 +266,6 @@
     <t>27,51%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
     <t>16,94%</t>
   </si>
   <si>
@@ -119,37 +281,31 @@
     <t>25,31%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -167,160 +323,58 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
   </si>
   <si>
     <t>19,29%</t>
@@ -347,31 +401,31 @@
     <t>24,53%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -389,63 +443,174 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
     <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
   </si>
   <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
     <t>22,58%</t>
   </si>
   <si>
@@ -473,31 +638,31 @@
     <t>27,0%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -512,169 +677,58 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>24,05%</t>
@@ -701,31 +755,31 @@
     <t>27,61%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -743,63 +797,174 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
     <t>Menores según salud general autopercibida en 2015 (Tasa respuesta: 42,76%)</t>
   </si>
   <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
     <t>14,88%</t>
   </si>
   <si>
@@ -827,31 +992,28 @@
     <t>17,49%</t>
   </si>
   <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -866,166 +1028,58 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
   </si>
   <si>
     <t>16,01%</t>
@@ -1055,31 +1109,22 @@
     <t>17,59%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -1097,54 +1142,162 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
     <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
   </si>
   <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
     <t>36,37%</t>
   </si>
   <si>
@@ -1172,31 +1325,28 @@
     <t>38,37%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -1205,154 +1355,58 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
   </si>
   <si>
     <t>37,37%</t>
@@ -1382,88 +1436,34 @@
     <t>38,22%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
+    <t>2,47%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
     <t>0,33%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB539D67-67CA-41F9-8858-04280435BEA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD5B087-B83A-4DA5-A221-91269842AE31}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2245,10 +2245,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>56477</v>
+        <v>10358</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2260,10 +2260,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>49177</v>
+        <v>13016</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2275,10 +2275,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>105654</v>
+        <v>23374</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2296,10 +2296,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>36023</v>
+        <v>33565</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2311,10 +2311,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>44261</v>
+        <v>25023</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2326,10 +2326,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="N11" s="7">
-        <v>80284</v>
+        <v>58588</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>13147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2362,34 +2362,34 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>726</v>
+        <v>8659</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N12" s="7">
-        <v>726</v>
+        <v>21806</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,46 +2398,46 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>146957</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>778</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="7">
-        <v>204</v>
-      </c>
-      <c r="I13" s="7">
-        <v>136964</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>283921</v>
+        <v>778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>50</v>
@@ -2449,49 +2449,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>5634</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4581</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="7">
-        <v>15</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10215</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,102 +2500,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7">
-        <v>245092</v>
+        <v>57070</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="I15" s="7">
-        <v>235708</v>
+        <v>47476</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>718</v>
+        <v>158</v>
       </c>
       <c r="N15" s="7">
-        <v>480800</v>
+        <v>104546</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>13147</v>
+        <v>36023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>66</v>
+      </c>
+      <c r="I16" s="7">
+        <v>44261</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="7">
+        <v>121</v>
+      </c>
+      <c r="N16" s="7">
+        <v>80284</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8659</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="7">
-        <v>33</v>
-      </c>
-      <c r="N16" s="7">
-        <v>21806</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,49 +2604,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D17" s="7">
-        <v>10358</v>
+        <v>146957</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
+        <v>204</v>
+      </c>
+      <c r="I17" s="7">
+        <v>136964</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>425</v>
+      </c>
+      <c r="N17" s="7">
+        <v>283921</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13016</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="7">
-        <v>35</v>
-      </c>
-      <c r="N17" s="7">
-        <v>23374</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,49 +2655,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>56477</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="7">
+        <v>72</v>
+      </c>
+      <c r="I18" s="7">
+        <v>49177</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="7">
+        <v>156</v>
+      </c>
+      <c r="N18" s="7">
+        <v>105654</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,49 +2706,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>33565</v>
+        <v>5634</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4581</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="7">
-        <v>38</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25023</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>15</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10215</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="7">
-        <v>89</v>
-      </c>
-      <c r="N19" s="7">
-        <v>58588</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>778</v>
+        <v>726</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>91</v>
@@ -2790,13 +2790,13 @@
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>778</v>
+        <v>726</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>92</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>93</v>
@@ -2808,49 +2808,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="D21" s="7">
-        <v>57070</v>
+        <v>245092</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="I21" s="7">
-        <v>47476</v>
+        <v>235708</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>158</v>
+        <v>718</v>
       </c>
       <c r="N21" s="7">
-        <v>104546</v>
+        <v>480800</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,49 +2861,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7">
-        <v>69624</v>
+        <v>46381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
       </c>
       <c r="I22" s="7">
-        <v>57836</v>
+        <v>57277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="N22" s="7">
-        <v>127460</v>
+        <v>103658</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +2912,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="D23" s="7">
-        <v>46381</v>
+        <v>180523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="I23" s="7">
-        <v>57277</v>
+        <v>161986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>156</v>
+        <v>514</v>
       </c>
       <c r="N23" s="7">
-        <v>103658</v>
+        <v>342509</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2963,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>69624</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I24" s="7">
-        <v>726</v>
+        <v>57836</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="N24" s="7">
-        <v>726</v>
+        <v>127460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,49 +3014,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>272</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>180523</v>
+        <v>5634</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>161986</v>
+        <v>5359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
-        <v>514</v>
+        <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>342509</v>
+        <v>10993</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,46 +3065,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>5634</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>5359</v>
+        <v>726</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>10993</v>
+        <v>726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>133</v>
@@ -3122,13 +3122,13 @@
         <v>302162</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>421</v>
@@ -3137,13 +3137,13 @@
         <v>283184</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>876</v>
@@ -3152,13 +3152,13 @@
         <v>585346</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32D73AB-6074-46B1-9353-B22A6814E2B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C1F656-3C82-4C14-A92A-0AF310162132}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3567,10 +3567,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>56374</v>
+        <v>10741</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>135</v>
@@ -3582,10 +3582,10 @@
         <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>55927</v>
+        <v>7386</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>138</v>
@@ -3597,19 +3597,19 @@
         <v>140</v>
       </c>
       <c r="M10" s="7">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>112301</v>
+        <v>18127</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,49 +3618,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>52791</v>
+        <v>27362</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>56</v>
+      </c>
+      <c r="I11" s="7">
+        <v>39708</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="7">
-        <v>51</v>
-      </c>
-      <c r="I11" s="7">
-        <v>34563</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>94</v>
+      </c>
+      <c r="N11" s="7">
+        <v>67070</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="7">
-        <v>130</v>
-      </c>
-      <c r="N11" s="7">
-        <v>87354</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,49 +3669,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>18711</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I12" s="7">
-        <v>1443</v>
+        <v>18329</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>1443</v>
+        <v>37040</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,49 +3720,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>134850</v>
+        <v>5028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>126951</v>
+        <v>790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>378</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>261802</v>
+        <v>5818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,49 +3771,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>5671</v>
+        <v>682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>7111</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>682</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="M14" s="7">
-        <v>19</v>
-      </c>
-      <c r="N14" s="7">
-        <v>12782</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,102 +3822,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7">
-        <v>249687</v>
+        <v>62524</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="I15" s="7">
-        <v>225995</v>
+        <v>66214</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>690</v>
+        <v>180</v>
       </c>
       <c r="N15" s="7">
-        <v>475683</v>
+        <v>128738</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>18711</v>
+        <v>52791</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="7">
+        <v>51</v>
+      </c>
+      <c r="I16" s="7">
+        <v>34563</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18329</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>130</v>
+      </c>
+      <c r="N16" s="7">
+        <v>87354</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="M16" s="7">
-        <v>51</v>
-      </c>
-      <c r="N16" s="7">
-        <v>37040</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,49 +3926,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="D17" s="7">
-        <v>10741</v>
+        <v>134850</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>180</v>
+      </c>
+      <c r="I17" s="7">
+        <v>126951</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7386</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>378</v>
+      </c>
+      <c r="N17" s="7">
+        <v>261802</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="M17" s="7">
-        <v>26</v>
-      </c>
-      <c r="N17" s="7">
-        <v>18127</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,49 +3977,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7">
-        <v>682</v>
+        <v>56374</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>192</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>55927</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="N18" s="7">
-        <v>682</v>
+        <v>112301</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,49 +4028,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>27362</v>
+        <v>5671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>39708</v>
+        <v>7111</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>67070</v>
+        <v>12782</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,46 +4079,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>5028</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>790</v>
+        <v>1443</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>5818</v>
+        <v>1443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>211</v>
@@ -4130,49 +4130,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="D21" s="7">
-        <v>62524</v>
+        <v>249687</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="I21" s="7">
-        <v>66214</v>
+        <v>225995</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>180</v>
+        <v>690</v>
       </c>
       <c r="N21" s="7">
-        <v>128738</v>
+        <v>475683</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,10 +4183,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D22" s="7">
-        <v>75085</v>
+        <v>63532</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>212</v>
@@ -4198,34 +4198,34 @@
         <v>214</v>
       </c>
       <c r="H22" s="7">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="I22" s="7">
-        <v>74256</v>
+        <v>41949</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="N22" s="7">
-        <v>149341</v>
+        <v>105481</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,49 +4234,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="D23" s="7">
-        <v>63532</v>
+        <v>162213</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H23" s="7">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="I23" s="7">
-        <v>41949</v>
+        <v>166659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" s="7">
-        <v>156</v>
+        <v>472</v>
       </c>
       <c r="N23" s="7">
-        <v>105481</v>
+        <v>328872</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,49 +4285,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="D24" s="7">
-        <v>682</v>
+        <v>75085</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="I24" s="7">
-        <v>1443</v>
+        <v>74256</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="N24" s="7">
-        <v>2125</v>
+        <v>149341</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +4336,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>162213</v>
+        <v>10700</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H25" s="7">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>166659</v>
+        <v>7901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M25" s="7">
-        <v>472</v>
+        <v>27</v>
       </c>
       <c r="N25" s="7">
-        <v>328872</v>
+        <v>18600</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,49 +4387,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>10700</v>
+        <v>682</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H26" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>7901</v>
+        <v>1443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>18600</v>
+        <v>2125</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4444,13 @@
         <v>312212</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>415</v>
@@ -4459,13 +4459,13 @@
         <v>292209</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>870</v>
@@ -4474,13 +4474,13 @@
         <v>604421</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4499,7 +4499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D0FE15-E470-4A1A-B089-196C0EDB004A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A8FEA9-18A2-4E9C-90BF-9416C8F2CC5E}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4889,10 +4889,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>38188</v>
+        <v>26637</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>253</v>
@@ -4904,10 +4904,10 @@
         <v>255</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>34124</v>
+        <v>23584</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>256</v>
@@ -4919,10 +4919,10 @@
         <v>258</v>
       </c>
       <c r="M10" s="7">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>72313</v>
+        <v>50221</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>259</v>
@@ -4940,10 +4940,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>104920</v>
+        <v>26266</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>262</v>
@@ -4955,10 +4955,10 @@
         <v>264</v>
       </c>
       <c r="H11" s="7">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I11" s="7">
-        <v>87076</v>
+        <v>44862</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>265</v>
@@ -4970,10 +4970,10 @@
         <v>267</v>
       </c>
       <c r="M11" s="7">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>191996</v>
+        <v>71128</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>268</v>
@@ -4991,49 +4991,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>1390</v>
+        <v>14018</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>657</v>
+        <v>12265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="N12" s="7">
-        <v>2047</v>
+        <v>26283</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,49 +5042,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>110430</v>
+        <v>2416</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>117206</v>
+        <v>1399</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>227636</v>
+        <v>3815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,49 +5093,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1740</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>2995</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>288</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>4735</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,102 +5144,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>256668</v>
+        <v>69338</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>339</v>
+        <v>123</v>
       </c>
       <c r="I15" s="7">
-        <v>242059</v>
+        <v>82109</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>686</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>498727</v>
+        <v>151447</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="D16" s="7">
-        <v>14018</v>
+        <v>104920</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>120</v>
+      </c>
+      <c r="I16" s="7">
+        <v>87076</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H16" s="7">
-        <v>17</v>
-      </c>
-      <c r="I16" s="7">
-        <v>12265</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>262</v>
+      </c>
+      <c r="N16" s="7">
+        <v>191996</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="7">
-        <v>37</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26283</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,49 +5248,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="D17" s="7">
-        <v>26637</v>
+        <v>110430</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>165</v>
+      </c>
+      <c r="I17" s="7">
+        <v>117206</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H17" s="7">
-        <v>36</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23584</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>316</v>
+      </c>
+      <c r="N17" s="7">
+        <v>227636</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="M17" s="7">
-        <v>74</v>
-      </c>
-      <c r="N17" s="7">
-        <v>50221</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,49 +5299,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>38188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>34124</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>72313</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,49 +5350,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>26266</v>
+        <v>1740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>44862</v>
+        <v>2995</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>71128</v>
+        <v>4735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,49 +5401,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>657</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
-        <v>2416</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1399</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
       <c r="N20" s="7">
-        <v>3815</v>
+        <v>2047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,49 +5452,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="D21" s="7">
-        <v>69338</v>
+        <v>256668</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="I21" s="7">
-        <v>82109</v>
+        <v>242059</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>223</v>
+        <v>686</v>
       </c>
       <c r="N21" s="7">
-        <v>151447</v>
+        <v>498727</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,10 +5505,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="D22" s="7">
-        <v>52207</v>
+        <v>131557</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>329</v>
@@ -5520,10 +5520,10 @@
         <v>331</v>
       </c>
       <c r="H22" s="7">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="I22" s="7">
-        <v>46390</v>
+        <v>110659</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>332</v>
@@ -5535,10 +5535,10 @@
         <v>334</v>
       </c>
       <c r="M22" s="7">
-        <v>135</v>
+        <v>336</v>
       </c>
       <c r="N22" s="7">
-        <v>98596</v>
+        <v>242217</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>335</v>
@@ -5556,10 +5556,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D23" s="7">
-        <v>131557</v>
+        <v>136696</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>338</v>
@@ -5571,10 +5571,10 @@
         <v>340</v>
       </c>
       <c r="H23" s="7">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="I23" s="7">
-        <v>110659</v>
+        <v>162068</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>341</v>
@@ -5586,10 +5586,10 @@
         <v>343</v>
       </c>
       <c r="M23" s="7">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="N23" s="7">
-        <v>242217</v>
+        <v>298764</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>344</v>
@@ -5607,49 +5607,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>1390</v>
+        <v>52207</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>35</v>
+        <v>348</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I24" s="7">
-        <v>657</v>
+        <v>46390</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="N24" s="7">
-        <v>2047</v>
+        <v>98596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,49 +5658,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>136696</v>
+        <v>4156</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>353</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H25" s="7">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>162068</v>
+        <v>4394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>356</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>357</v>
+        <v>51</v>
       </c>
       <c r="M25" s="7">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>298764</v>
+        <v>8550</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,43 +5709,43 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>4156</v>
+        <v>1390</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>362</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>4394</v>
+        <v>657</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>363</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>8550</v>
+        <v>2047</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>365</v>
@@ -5766,13 +5766,13 @@
         <v>326006</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>462</v>
@@ -5781,13 +5781,13 @@
         <v>324168</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>909</v>
@@ -5796,13 +5796,13 @@
         <v>650174</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5821,7 +5821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326C14E4-B3B5-4F8C-B4B3-7F66C0F8301B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9F2C2E-AA50-40DA-A107-193091143AAD}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6211,10 +6211,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>82438</v>
+        <v>5656</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>368</v>
@@ -6226,10 +6226,10 @@
         <v>370</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>48439</v>
+        <v>2447</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>371</v>
@@ -6241,19 +6241,19 @@
         <v>373</v>
       </c>
       <c r="M10" s="7">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>130876</v>
+        <v>8103</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,49 +6262,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>36024</v>
+        <v>17990</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>19259</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="H11" s="7">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7">
-        <v>36643</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>46</v>
+      </c>
+      <c r="N11" s="7">
+        <v>37249</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="M11" s="7">
-        <v>84</v>
-      </c>
-      <c r="N11" s="7">
-        <v>72667</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,49 +6313,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>17730</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>12659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>30388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,49 +6364,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>104596</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>81437</v>
+        <v>605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>186034</v>
+        <v>605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,49 +6415,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3603</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5630</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,102 +6466,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>226662</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34970</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>484</v>
+        <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>395207</v>
+        <v>76345</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>17730</v>
+        <v>36024</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" s="7">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36643</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>84</v>
+      </c>
+      <c r="N16" s="7">
+        <v>72667</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H16" s="7">
-        <v>17</v>
-      </c>
-      <c r="I16" s="7">
-        <v>12659</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M16" s="7">
-        <v>38</v>
-      </c>
-      <c r="N16" s="7">
-        <v>30388</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,49 +6570,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7">
-        <v>5656</v>
+        <v>104596</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" s="7">
+        <v>110</v>
+      </c>
+      <c r="I17" s="7">
+        <v>81437</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>232</v>
+      </c>
+      <c r="N17" s="7">
+        <v>186034</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2447</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8103</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,49 +6621,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>82438</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>420</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" s="7">
+        <v>71</v>
+      </c>
+      <c r="I18" s="7">
+        <v>48439</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>130876</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>425</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>36</v>
+        <v>426</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,49 +6672,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>17990</v>
+        <v>3603</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>19259</v>
+        <v>2026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>37249</v>
+        <v>5630</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,40 +6729,40 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>44</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>437</v>
@@ -6774,49 +6774,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>226662</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34970</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="N21" s="7">
-        <v>76345</v>
+        <v>395207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,10 +6827,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>100167</v>
+        <v>41681</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>438</v>
@@ -6842,10 +6842,10 @@
         <v>440</v>
       </c>
       <c r="H22" s="7">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I22" s="7">
-        <v>61097</v>
+        <v>39090</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>441</v>
@@ -6857,10 +6857,10 @@
         <v>443</v>
       </c>
       <c r="M22" s="7">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="N22" s="7">
-        <v>161264</v>
+        <v>80770</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>444</v>
@@ -6878,10 +6878,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="D23" s="7">
-        <v>41681</v>
+        <v>122587</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>447</v>
@@ -6893,10 +6893,10 @@
         <v>449</v>
       </c>
       <c r="H23" s="7">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="I23" s="7">
-        <v>39090</v>
+        <v>100696</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>450</v>
@@ -6908,10 +6908,10 @@
         <v>452</v>
       </c>
       <c r="M23" s="7">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="N23" s="7">
-        <v>80770</v>
+        <v>223283</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>453</v>
@@ -6929,49 +6929,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>100167</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>456</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>36</v>
+        <v>457</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>61097</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>35</v>
+        <v>459</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>36</v>
+        <v>460</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>161264</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>35</v>
+        <v>462</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>36</v>
+        <v>463</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,49 +6980,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>122587</v>
+        <v>3603</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>100696</v>
+        <v>2631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M25" s="7">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>223283</v>
+        <v>6235</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,46 +7031,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>3603</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>2631</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>44</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>6235</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>474</v>
@@ -7088,13 +7088,13 @@
         <v>268038</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>271</v>
@@ -7103,13 +7103,13 @@
         <v>203514</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>579</v>
@@ -7118,13 +7118,13 @@
         <v>471552</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57CC854-258B-47FB-B1D9-0B12098AE0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1981CC83-5C81-4852-B5E3-D8C7F2536104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CE1AFB65-6B22-42FF-BB62-875937019ADB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EAF8385-F512-4276-B4B9-42EDECD09DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="479">
   <si>
     <t>Menores según salud general autopercibida en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
@@ -68,1402 +68,1414 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Mala</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
   </si>
   <si>
     <t>Excelente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Mala</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2015 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2015 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>22,88%</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1486,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1570,39 +1582,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1654,7 +1666,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1765,13 +1777,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1780,6 +1785,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1844,19 +1856,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD5B087-B83A-4DA5-A221-91269842AE31}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D86BBB-9FEB-4F9C-8514-E790597A802A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2245,49 +2277,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
-      </c>
-      <c r="N10" s="7">
-        <v>23374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,49 +2322,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
-      </c>
-      <c r="D11" s="7">
-        <v>33565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
-      </c>
-      <c r="I11" s="7">
-        <v>25023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
-      </c>
-      <c r="N11" s="7">
-        <v>58588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,49 +2367,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7">
-        <v>13147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>33</v>
-      </c>
-      <c r="N12" s="7">
-        <v>21806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,47 +2414,41 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,47 +2459,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,102 +2502,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>87</v>
-      </c>
-      <c r="D15" s="7">
-        <v>57070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>71</v>
-      </c>
-      <c r="I15" s="7">
-        <v>47476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>158</v>
-      </c>
-      <c r="N15" s="7">
-        <v>104546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>36023</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>44261</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>80284</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,49 +2600,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>146957</v>
+        <v>3495</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="H17" s="7">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>136964</v>
+        <v>1508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
-        <v>425</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>283921</v>
+        <v>5003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,49 +2651,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7">
-        <v>56477</v>
+        <v>33759</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
+        <v>30</v>
+      </c>
+      <c r="I18" s="7">
+        <v>20416</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="7">
-        <v>72</v>
-      </c>
-      <c r="I18" s="7">
-        <v>49177</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="M18" s="7">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="N18" s="7">
-        <v>105654</v>
+        <v>54175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,49 +2702,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D19" s="7">
-        <v>5634</v>
+        <v>64812</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="I19" s="7">
-        <v>4581</v>
+        <v>62362</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="N19" s="7">
-        <v>10215</v>
+        <v>127173</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,49 +2753,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>18884</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>726</v>
+        <v>24433</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="N20" s="7">
-        <v>726</v>
+        <v>43317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,102 +2804,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="D21" s="7">
-        <v>245092</v>
+        <v>120950</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>235708</v>
+        <v>108719</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>718</v>
+        <v>346</v>
       </c>
       <c r="N21" s="7">
-        <v>480800</v>
+        <v>229668</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>46381</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>57277</v>
+        <v>726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="M22" s="7">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>103658</v>
+        <v>726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +2908,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>180523</v>
+        <v>2140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>161986</v>
+        <v>3851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="M23" s="7">
-        <v>514</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>342509</v>
+        <v>5991</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2959,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7">
-        <v>69624</v>
+        <v>35865</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I24" s="7">
-        <v>57836</v>
+        <v>37419</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M24" s="7">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="N24" s="7">
-        <v>127460</v>
+        <v>73285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,49 +3010,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D25" s="7">
-        <v>5634</v>
+        <v>115711</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="I25" s="7">
-        <v>5359</v>
+        <v>99625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="N25" s="7">
-        <v>10993</v>
+        <v>215336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,49 +3061,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>27496</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I26" s="7">
-        <v>726</v>
+        <v>32844</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="N26" s="7">
-        <v>726</v>
+        <v>60341</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,55 +3112,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>273</v>
+      </c>
+      <c r="D27" s="7">
+        <v>181212</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>257</v>
+      </c>
+      <c r="I27" s="7">
+        <v>174465</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>530</v>
+      </c>
+      <c r="N27" s="7">
+        <v>355678</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>726</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>726</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5634</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5359</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="7">
+        <v>16</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10993</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7">
+        <v>69624</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="7">
+        <v>85</v>
+      </c>
+      <c r="I30" s="7">
+        <v>57836</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="7">
+        <v>189</v>
+      </c>
+      <c r="N30" s="7">
+        <v>127460</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>272</v>
+      </c>
+      <c r="D31" s="7">
+        <v>180523</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="7">
+        <v>242</v>
+      </c>
+      <c r="I31" s="7">
+        <v>161986</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" s="7">
+        <v>514</v>
+      </c>
+      <c r="N31" s="7">
+        <v>342509</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>71</v>
+      </c>
+      <c r="D32" s="7">
+        <v>46381</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="7">
+        <v>85</v>
+      </c>
+      <c r="I32" s="7">
+        <v>57277</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="7">
+        <v>156</v>
+      </c>
+      <c r="N32" s="7">
+        <v>103658</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>455</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>302162</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>421</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>283184</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>876</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>585346</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3177,8 +3487,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C1F656-3C82-4C14-A92A-0AF310162132}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B68295-5A86-45F9-920F-459DD232C7DB}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3194,7 +3504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3567,49 +3877,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>26</v>
-      </c>
-      <c r="N10" s="7">
-        <v>18127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,49 +3922,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
-      </c>
-      <c r="D11" s="7">
-        <v>27362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>56</v>
-      </c>
-      <c r="I11" s="7">
-        <v>39708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>94</v>
-      </c>
-      <c r="N11" s="7">
-        <v>67070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,49 +3967,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7">
-        <v>18711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>51</v>
-      </c>
-      <c r="N12" s="7">
-        <v>37040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,49 +4012,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>5818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,49 +4057,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,102 +4102,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>87</v>
-      </c>
-      <c r="D15" s="7">
-        <v>62524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>93</v>
-      </c>
-      <c r="I15" s="7">
-        <v>66214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>180</v>
-      </c>
-      <c r="N15" s="7">
-        <v>128738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>52791</v>
+        <v>682</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>34563</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>87354</v>
+        <v>682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,49 +4200,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>134850</v>
+        <v>6287</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>126951</v>
+        <v>3015</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
-        <v>378</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>261802</v>
+        <v>9302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,49 +4251,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7">
-        <v>56374</v>
+        <v>35907</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="H18" s="7">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I18" s="7">
-        <v>55927</v>
+        <v>35267</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
+        <v>100</v>
+      </c>
+      <c r="N18" s="7">
+        <v>71175</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="N18" s="7">
-        <v>112301</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,49 +4302,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>5671</v>
+        <v>80960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="I19" s="7">
-        <v>7111</v>
+        <v>80923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="M19" s="7">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="N19" s="7">
-        <v>12782</v>
+        <v>161882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,49 +4353,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>24369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I20" s="7">
-        <v>1443</v>
+        <v>20159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="N20" s="7">
-        <v>1443</v>
+        <v>44528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,102 +4404,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>368</v>
+        <v>213</v>
       </c>
       <c r="D21" s="7">
-        <v>249687</v>
+        <v>148205</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="I21" s="7">
-        <v>225995</v>
+        <v>139364</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>690</v>
+        <v>411</v>
       </c>
       <c r="N21" s="7">
-        <v>475683</v>
+        <v>287568</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>63532</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>41949</v>
+        <v>1443</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>105481</v>
+        <v>1443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,49 +4508,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>162213</v>
+        <v>4413</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>166659</v>
+        <v>4886</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
-        <v>472</v>
+        <v>14</v>
       </c>
       <c r="N23" s="7">
-        <v>328872</v>
+        <v>9299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,49 +4559,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7">
-        <v>75085</v>
+        <v>39177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="H24" s="7">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I24" s="7">
-        <v>74256</v>
+        <v>38989</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="M24" s="7">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="N24" s="7">
-        <v>149341</v>
+        <v>78167</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +4610,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="D25" s="7">
-        <v>10700</v>
+        <v>81253</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="H25" s="7">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="I25" s="7">
-        <v>7901</v>
+        <v>85737</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="7">
         <v>241</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M25" s="7">
-        <v>27</v>
-      </c>
       <c r="N25" s="7">
-        <v>18600</v>
+        <v>166990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,49 +4661,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7">
-        <v>682</v>
+        <v>39163</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I26" s="7">
-        <v>1443</v>
+        <v>21791</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="N26" s="7">
-        <v>2125</v>
+        <v>60954</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,55 +4712,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164007</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>217</v>
+      </c>
+      <c r="I27" s="7">
+        <v>152846</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>459</v>
+      </c>
+      <c r="N27" s="7">
+        <v>316852</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>682</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1443</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2125</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>16</v>
+      </c>
+      <c r="D29" s="7">
+        <v>10700</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" s="7">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7901</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" s="7">
+        <v>27</v>
+      </c>
+      <c r="N29" s="7">
+        <v>18600</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>108</v>
+      </c>
+      <c r="D30" s="7">
+        <v>75085</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="7">
+        <v>104</v>
+      </c>
+      <c r="I30" s="7">
+        <v>74256</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" s="7">
+        <v>212</v>
+      </c>
+      <c r="N30" s="7">
+        <v>149341</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>236</v>
+      </c>
+      <c r="D31" s="7">
+        <v>162213</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="7">
+        <v>236</v>
+      </c>
+      <c r="I31" s="7">
+        <v>166659</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" s="7">
+        <v>472</v>
+      </c>
+      <c r="N31" s="7">
+        <v>328872</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>94</v>
+      </c>
+      <c r="D32" s="7">
+        <v>63532</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="7">
+        <v>62</v>
+      </c>
+      <c r="I32" s="7">
+        <v>41949</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M32" s="7">
+        <v>156</v>
+      </c>
+      <c r="N32" s="7">
+        <v>105481</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>455</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>312212</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>415</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>292209</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>870</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>604421</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4499,8 +5087,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A8FEA9-18A2-4E9C-90BF-9416C8F2CC5E}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD01015B-DD4B-4C39-978B-9B26D9E8AC48}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4516,7 +5104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4889,49 +5477,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7">
-        <v>26637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>74</v>
-      </c>
-      <c r="N10" s="7">
-        <v>50221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,49 +5522,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
-      </c>
-      <c r="D11" s="7">
-        <v>26266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>68</v>
-      </c>
-      <c r="I11" s="7">
-        <v>44862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>107</v>
-      </c>
-      <c r="N11" s="7">
-        <v>71128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,49 +5567,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7">
-        <v>14018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>37</v>
-      </c>
-      <c r="N12" s="7">
-        <v>26283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,49 +5612,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,47 +5659,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,102 +5702,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>69338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>123</v>
-      </c>
-      <c r="I15" s="7">
-        <v>82109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>223</v>
-      </c>
-      <c r="N15" s="7">
-        <v>151447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>657</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="7">
-        <v>104920</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" s="7">
-        <v>120</v>
-      </c>
-      <c r="I16" s="7">
-        <v>87076</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2047</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="N16" s="7">
-        <v>191996</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,49 +5800,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>110430</v>
+        <v>2416</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>117206</v>
+        <v>1948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>227636</v>
+        <v>4364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,49 +5851,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>38188</v>
+        <v>29632</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I18" s="7">
-        <v>34124</v>
+        <v>21600</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="N18" s="7">
-        <v>72313</v>
+        <v>51232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,49 +5902,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7">
-        <v>1740</v>
+        <v>61823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="I19" s="7">
-        <v>2995</v>
+        <v>89306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="N19" s="7">
-        <v>4735</v>
+        <v>151128</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,49 +5953,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>1390</v>
+        <v>68637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I20" s="7">
-        <v>657</v>
+        <v>58725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="N20" s="7">
-        <v>2047</v>
+        <v>127362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,102 +6004,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="D21" s="7">
-        <v>256668</v>
+        <v>163898</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="I21" s="7">
-        <v>242059</v>
+        <v>172235</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>686</v>
+        <v>475</v>
       </c>
       <c r="N21" s="7">
-        <v>498727</v>
+        <v>336133</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>131557</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>110659</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>242217</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,49 +6108,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>136696</v>
+        <v>1740</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7">
-        <v>233</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>162068</v>
+        <v>2446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M23" s="7">
-        <v>423</v>
+        <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>298764</v>
+        <v>4186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,49 +6159,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>52207</v>
+        <v>22574</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="H24" s="7">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I24" s="7">
-        <v>46390</v>
+        <v>24790</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="M24" s="7">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="N24" s="7">
-        <v>98596</v>
+        <v>47364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,49 +6210,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7">
-        <v>4156</v>
+        <v>74873</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="I25" s="7">
-        <v>4394</v>
+        <v>72763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>51</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="N25" s="7">
-        <v>8550</v>
+        <v>147636</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,49 +6261,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D26" s="7">
-        <v>1390</v>
+        <v>62920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I26" s="7">
-        <v>657</v>
+        <v>51935</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="N26" s="7">
-        <v>2047</v>
+        <v>114854</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,55 +6312,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>218</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162107</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>216</v>
+      </c>
+      <c r="I27" s="7">
+        <v>151933</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>434</v>
+      </c>
+      <c r="N27" s="7">
+        <v>314040</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>657</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2047</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4156</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4394</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" s="7">
+        <v>12</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8550</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>70</v>
+      </c>
+      <c r="D30" s="7">
+        <v>52207</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H30" s="7">
+        <v>65</v>
+      </c>
+      <c r="I30" s="7">
+        <v>46390</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M30" s="7">
+        <v>135</v>
+      </c>
+      <c r="N30" s="7">
+        <v>98596</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>190</v>
+      </c>
+      <c r="D31" s="7">
+        <v>136696</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H31" s="7">
+        <v>233</v>
+      </c>
+      <c r="I31" s="7">
+        <v>162068</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M31" s="7">
+        <v>423</v>
+      </c>
+      <c r="N31" s="7">
+        <v>298764</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>180</v>
+      </c>
+      <c r="D32" s="7">
+        <v>131557</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H32" s="7">
+        <v>156</v>
+      </c>
+      <c r="I32" s="7">
+        <v>110659</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M32" s="7">
+        <v>336</v>
+      </c>
+      <c r="N32" s="7">
+        <v>242217</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>447</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326006</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>462</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>324168</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>909</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>650174</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5821,8 +6687,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9F2C2E-AA50-40DA-A107-193091143AAD}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4832847D-C4D0-478E-B575-81DA64F86056}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5838,7 +6704,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6211,49 +7077,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
-        <v>5656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7">
-        <v>8103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,49 +7122,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7">
-        <v>17990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>46</v>
-      </c>
-      <c r="N11" s="7">
-        <v>37249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,49 +7167,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7">
-        <v>17730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
-      </c>
-      <c r="N12" s="7">
-        <v>30388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,47 +7214,41 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,47 +7259,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,102 +7302,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>95</v>
-      </c>
-      <c r="N15" s="7">
-        <v>76345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>36024</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>36643</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>72667</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,49 +7400,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>104596</v>
+        <v>1554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>81437</v>
+        <v>2213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>186034</v>
+        <v>3767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,49 +7451,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>82438</v>
+        <v>39665</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="H18" s="7">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>48439</v>
+        <v>24609</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="M18" s="7">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="N18" s="7">
-        <v>130876</v>
+        <v>64274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,49 +7502,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>3603</v>
+        <v>42431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>249</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7">
-        <v>2026</v>
+        <v>35529</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="N19" s="7">
-        <v>5630</v>
+        <v>77961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,49 +7553,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>15698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>49</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>10282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>25980</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,102 +7604,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>226662</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>72634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>484</v>
+        <v>215</v>
       </c>
       <c r="N21" s="7">
-        <v>395207</v>
+        <v>171982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>41681</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>39090</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>18</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="M22" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>80770</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>18</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,49 +7708,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>122587</v>
+        <v>2050</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>100696</v>
+        <v>418</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>451</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
-        <v>278</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>223283</v>
+        <v>2468</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,49 +7759,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7">
-        <v>100167</v>
+        <v>60502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="I24" s="7">
-        <v>61097</v>
+        <v>36488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="N24" s="7">
-        <v>161264</v>
+        <v>96990</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,49 +7810,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D25" s="7">
-        <v>3603</v>
+        <v>80155</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="I25" s="7">
-        <v>2631</v>
+        <v>65167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M25" s="7">
+        <v>183</v>
+      </c>
+      <c r="N25" s="7">
+        <v>145322</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="M25" s="7">
-        <v>9</v>
-      </c>
-      <c r="N25" s="7">
-        <v>6235</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,49 +7861,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>25983</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>28807</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>54790</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,55 +7912,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>189</v>
+      </c>
+      <c r="D27" s="7">
+        <v>168690</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>364</v>
+      </c>
+      <c r="N27" s="7">
+        <v>299570</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3603</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2631</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M29" s="7">
+        <v>9</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6235</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>110</v>
+      </c>
+      <c r="D30" s="7">
+        <v>100167</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H30" s="7">
+        <v>88</v>
+      </c>
+      <c r="I30" s="7">
+        <v>61097</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M30" s="7">
+        <v>198</v>
+      </c>
+      <c r="N30" s="7">
+        <v>161264</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>144</v>
+      </c>
+      <c r="D31" s="7">
+        <v>122587</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H31" s="7">
+        <v>134</v>
+      </c>
+      <c r="I31" s="7">
+        <v>100696</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M31" s="7">
+        <v>278</v>
+      </c>
+      <c r="N31" s="7">
+        <v>223283</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7">
+        <v>41681</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H32" s="7">
+        <v>45</v>
+      </c>
+      <c r="I32" s="7">
+        <v>39090</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="M32" s="7">
+        <v>94</v>
+      </c>
+      <c r="N32" s="7">
+        <v>80770</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>308</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>268038</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>271</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>203514</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>579</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>471552</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1981CC83-5C81-4852-B5E3-D8C7F2536104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98994AB-A20F-4158-9DB6-92616972432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EAF8385-F512-4276-B4B9-42EDECD09DAF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A59BEA4-DE50-4D3F-BF17-7373888D0FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="484">
   <si>
     <t>Menores según salud general autopercibida en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
@@ -113,1369 +113,1384 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,23%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2015 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>39,06%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
   </si>
   <si>
     <t>49,48%</t>
   </si>
   <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>22,88%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D86BBB-9FEB-4F9C-8514-E790597A802A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81832C89-31EE-449A-B141-ED06F1CF7889}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2899,7 +2914,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2929,13 @@
         <v>2140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2929,13 +2944,13 @@
         <v>3851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2944,13 +2959,13 @@
         <v>5991</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2980,13 @@
         <v>35865</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -2980,13 +2995,13 @@
         <v>37419</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -2995,13 +3010,13 @@
         <v>73285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3031,13 @@
         <v>115711</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>147</v>
@@ -3031,13 +3046,13 @@
         <v>99625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>322</v>
@@ -3046,13 +3061,13 @@
         <v>215336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3082,13 @@
         <v>27496</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -3082,13 +3097,13 @@
         <v>32844</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -3097,13 +3112,13 @@
         <v>60341</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3201,13 @@
         <v>726</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3201,13 +3216,13 @@
         <v>726</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3237,13 @@
         <v>5634</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3237,13 +3252,13 @@
         <v>5359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -3252,13 +3267,13 @@
         <v>10993</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3288,13 @@
         <v>69624</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>85</v>
@@ -3288,7 +3303,7 @@
         <v>57836</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>116</v>
@@ -3487,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B68295-5A86-45F9-920F-459DD232C7DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9710D080-DA2A-4DFE-B1C2-1E60A2945192}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4260,10 +4275,10 @@
         <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -4272,13 +4287,13 @@
         <v>35267</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -4287,13 +4302,13 @@
         <v>71175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,28 +4323,28 @@
         <v>80960</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
       </c>
       <c r="I19" s="7">
-        <v>80923</v>
+        <v>80922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>231</v>
@@ -4338,13 +4353,13 @@
         <v>161882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4374,13 @@
         <v>24369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -4374,13 +4389,13 @@
         <v>20159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -4389,13 +4404,13 @@
         <v>44528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4437,7 @@
         <v>198</v>
       </c>
       <c r="I21" s="7">
-        <v>139364</v>
+        <v>139363</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -4469,7 +4484,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -4478,13 +4493,13 @@
         <v>1443</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -4499,7 +4514,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4529,13 @@
         <v>4413</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -4529,13 +4544,13 @@
         <v>4886</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4544,13 +4559,13 @@
         <v>9299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4580,13 @@
         <v>39177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -4580,13 +4595,13 @@
         <v>38989</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -4595,13 +4610,13 @@
         <v>78167</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4631,13 @@
         <v>81253</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -4631,13 +4646,13 @@
         <v>85737</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -4646,13 +4661,13 @@
         <v>166990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4682,13 @@
         <v>39163</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -4682,13 +4697,13 @@
         <v>21791</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -4697,13 +4712,13 @@
         <v>60954</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4786,13 @@
         <v>682</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4786,13 +4801,13 @@
         <v>1443</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4801,13 +4816,13 @@
         <v>2125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4837,13 @@
         <v>10700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4837,13 +4852,13 @@
         <v>7901</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -4852,13 +4867,13 @@
         <v>18600</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4888,13 @@
         <v>75085</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H30" s="7">
         <v>104</v>
@@ -4888,13 +4903,13 @@
         <v>74256</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M30" s="7">
         <v>212</v>
@@ -4903,13 +4918,13 @@
         <v>149341</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4939,13 @@
         <v>162213</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H31" s="7">
         <v>236</v>
@@ -4939,13 +4954,13 @@
         <v>166659</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M31" s="7">
         <v>472</v>
@@ -4954,13 +4969,13 @@
         <v>328872</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4990,13 @@
         <v>63532</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H32" s="7">
         <v>62</v>
@@ -4990,13 +5005,13 @@
         <v>41949</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M32" s="7">
         <v>156</v>
@@ -5005,13 +5020,13 @@
         <v>105481</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD01015B-DD4B-4C39-978B-9B26D9E8AC48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A18D348-B6F8-41EB-94FA-C2D656C19B08}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5104,7 +5119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5770,13 @@
         <v>1390</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5770,13 +5785,13 @@
         <v>657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5785,13 +5800,13 @@
         <v>2047</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5821,13 @@
         <v>2416</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5821,13 +5836,13 @@
         <v>1948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5836,13 +5851,13 @@
         <v>4364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5872,13 @@
         <v>29632</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -5872,13 +5887,13 @@
         <v>21600</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -5887,13 +5902,13 @@
         <v>51232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5923,13 @@
         <v>61823</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>130</v>
@@ -5923,13 +5938,13 @@
         <v>89306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -5938,13 +5953,13 @@
         <v>151128</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5974,13 @@
         <v>68637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -5974,13 +5989,13 @@
         <v>58725</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>177</v>
@@ -5989,13 +6004,13 @@
         <v>127362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,7 +6084,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6084,7 +6099,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6099,7 +6114,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6129,13 @@
         <v>1740</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6129,13 +6144,13 @@
         <v>2446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -6144,13 +6159,13 @@
         <v>4186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6180,13 @@
         <v>22574</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -6180,13 +6195,13 @@
         <v>24790</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -6195,13 +6210,13 @@
         <v>47364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6231,13 @@
         <v>74873</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>103</v>
@@ -6231,13 +6246,13 @@
         <v>72763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -6246,13 +6261,13 @@
         <v>147636</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6282,13 @@
         <v>62920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -6282,13 +6297,13 @@
         <v>51935</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -6297,13 +6312,13 @@
         <v>114854</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6386,13 @@
         <v>1390</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6422,13 +6437,13 @@
         <v>4156</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6437,13 +6452,13 @@
         <v>4394</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6452,13 +6467,13 @@
         <v>8550</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6488,13 @@
         <v>52207</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H30" s="7">
         <v>65</v>
@@ -6488,13 +6503,13 @@
         <v>46390</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M30" s="7">
         <v>135</v>
@@ -6503,13 +6518,13 @@
         <v>98596</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6539,13 @@
         <v>136696</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H31" s="7">
         <v>233</v>
@@ -6539,13 +6554,13 @@
         <v>162068</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M31" s="7">
         <v>423</v>
@@ -6554,13 +6569,13 @@
         <v>298764</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6590,13 @@
         <v>131557</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H32" s="7">
         <v>156</v>
@@ -6590,13 +6605,13 @@
         <v>110659</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M32" s="7">
         <v>336</v>
@@ -6605,13 +6620,13 @@
         <v>242217</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,7 +6702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4832847D-C4D0-478E-B575-81DA64F86056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C574E2B-BAB1-4B30-B07E-948BF9BC357E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6704,7 +6719,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7361,7 +7376,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7376,7 +7391,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7391,7 +7406,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,7 +7457,7 @@
         <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7472,13 @@
         <v>39665</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -7472,13 +7487,13 @@
         <v>24609</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M18" s="7">
         <v>83</v>
@@ -7487,13 +7502,13 @@
         <v>64274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7508,13 +7523,13 @@
         <v>42431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>44</v>
@@ -7523,13 +7538,13 @@
         <v>35529</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
@@ -7538,13 +7553,13 @@
         <v>77961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,13 +7574,13 @@
         <v>15698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -7574,13 +7589,13 @@
         <v>10282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7589,13 +7604,13 @@
         <v>25980</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,7 +7684,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7717,10 +7732,10 @@
         <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7729,13 +7744,13 @@
         <v>418</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7744,7 +7759,7 @@
         <v>2468</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>420</v>
@@ -7834,10 +7849,10 @@
         <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -7846,13 +7861,13 @@
         <v>145322</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,10 +7882,10 @@
         <v>25983</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>441</v>
@@ -7882,13 +7897,13 @@
         <v>28807</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>32</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
@@ -7897,13 +7912,13 @@
         <v>54790</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,7 +7992,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7992,7 +8007,7 @@
         <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8007,7 +8022,7 @@
         <v>19</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,13 +8037,13 @@
         <v>3603</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -8037,13 +8052,13 @@
         <v>2631</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -8052,13 +8067,13 @@
         <v>6235</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>454</v>
+        <v>222</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,13 +8088,13 @@
         <v>100167</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>283</v>
+        <v>458</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="H30" s="7">
         <v>88</v>
@@ -8088,13 +8103,13 @@
         <v>61097</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
@@ -8103,13 +8118,13 @@
         <v>161264</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8139,13 @@
         <v>122587</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>327</v>
+        <v>468</v>
       </c>
       <c r="H31" s="7">
         <v>134</v>
@@ -8139,13 +8154,13 @@
         <v>100696</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M31" s="7">
         <v>278</v>
@@ -8154,13 +8169,13 @@
         <v>223283</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8190,13 @@
         <v>41681</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H32" s="7">
         <v>45</v>
@@ -8190,13 +8205,13 @@
         <v>39090</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M32" s="7">
         <v>94</v>
@@ -8205,13 +8220,13 @@
         <v>80770</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>274</v>
+        <v>482</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98994AB-A20F-4158-9DB6-92616972432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65998169-4571-4112-AE03-72A856515A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A59BEA4-DE50-4D3F-BF17-7373888D0FF4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8557D328-9709-4441-A1B8-9F1D7E086DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="482">
   <si>
     <t>Menores según salud general autopercibida en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -101,1396 +101,1390 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2016 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81832C89-31EE-449A-B141-ED06F1CF7889}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907B3C68-1568-4BAA-A04E-010275760518}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2615,31 +2609,31 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>3495</v>
+        <v>1508</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3495</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1508</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>27</v>
@@ -2666,10 +2660,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>33759</v>
+        <v>20416</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>31</v>
@@ -2681,10 +2675,10 @@
         <v>33</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I18" s="7">
-        <v>20416</v>
+        <v>33759</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>34</v>
@@ -2717,10 +2711,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7">
-        <v>64812</v>
+        <v>62362</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2732,10 +2726,10 @@
         <v>42</v>
       </c>
       <c r="H19" s="7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I19" s="7">
-        <v>62362</v>
+        <v>64812</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>43</v>
@@ -2768,10 +2762,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>18884</v>
+        <v>24433</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>49</v>
@@ -2783,10 +2777,10 @@
         <v>51</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I20" s="7">
-        <v>24433</v>
+        <v>18884</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>52</v>
@@ -2810,7 +2804,7 @@
         <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,34 +2813,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>164</v>
+      </c>
+      <c r="D21" s="7">
+        <v>108719</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>182</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>120950</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>164</v>
-      </c>
-      <c r="I21" s="7">
-        <v>108719</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>346</v>
@@ -2855,51 +2849,51 @@
         <v>229668</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2908,13 +2902,13 @@
         <v>726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,34 +2917,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3851</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>2140</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="7">
-        <v>6</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3851</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2959,13 +2953,13 @@
         <v>5991</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,49 +2968,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>55</v>
+      </c>
+      <c r="D24" s="7">
+        <v>37419</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="7">
         <v>53</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>35865</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="7">
-        <v>55</v>
-      </c>
-      <c r="I24" s="7">
-        <v>37419</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
       </c>
       <c r="N24" s="7">
-        <v>73285</v>
+        <v>73284</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,34 +3019,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>147</v>
+      </c>
+      <c r="D25" s="7">
+        <v>99625</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="7">
         <v>175</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>115711</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="7">
-        <v>147</v>
-      </c>
-      <c r="I25" s="7">
-        <v>99625</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>322</v>
@@ -3061,13 +3055,13 @@
         <v>215336</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,34 +3070,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7">
+        <v>32844</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="7">
         <v>42</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>27496</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="7">
-        <v>48</v>
-      </c>
-      <c r="I26" s="7">
-        <v>32844</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -3112,13 +3106,13 @@
         <v>60341</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,49 +3121,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>257</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174465</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>273</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>181212</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>257</v>
-      </c>
-      <c r="I27" s="7">
-        <v>174465</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>530</v>
       </c>
       <c r="N27" s="7">
-        <v>355678</v>
+        <v>355677</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,34 +3174,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>726</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3216,13 +3210,13 @@
         <v>726</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,28 +3228,28 @@
         <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>5634</v>
+        <v>5359</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
       </c>
       <c r="I29" s="7">
-        <v>5359</v>
+        <v>5634</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>109</v>
@@ -3270,10 +3264,10 @@
         <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,28 +3276,28 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>85</v>
+      </c>
+      <c r="D30" s="7">
+        <v>57836</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="7">
         <v>104</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>69624</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H30" s="7">
-        <v>85</v>
-      </c>
-      <c r="I30" s="7">
-        <v>57836</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>116</v>
@@ -3333,10 +3327,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D31" s="7">
-        <v>180523</v>
+        <v>161986</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>121</v>
@@ -3348,10 +3342,10 @@
         <v>123</v>
       </c>
       <c r="H31" s="7">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="I31" s="7">
-        <v>161986</v>
+        <v>180523</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>124</v>
@@ -3384,34 +3378,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>85</v>
+      </c>
+      <c r="D32" s="7">
+        <v>57277</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="7">
         <v>71</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>46381</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="7">
-        <v>85</v>
-      </c>
-      <c r="I32" s="7">
-        <v>57277</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>156</v>
@@ -3420,13 +3414,13 @@
         <v>103658</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,34 +3429,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>421</v>
+      </c>
+      <c r="D33" s="7">
+        <v>283184</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>455</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>302162</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>421</v>
-      </c>
-      <c r="I33" s="7">
-        <v>283184</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>876</v>
@@ -3471,18 +3465,18 @@
         <v>585346</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9710D080-DA2A-4DFE-B1C2-1E60A2945192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9972A115-D6A8-45C0-8925-941F4649E67E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3519,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4164,34 +4158,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>682</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4200,13 +4194,13 @@
         <v>682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,34 +4209,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3015</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>6287</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3015</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4251,13 +4245,13 @@
         <v>9302</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,34 +4260,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7">
+        <v>35267</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="7">
         <v>51</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>35907</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="7">
-        <v>49</v>
-      </c>
-      <c r="I18" s="7">
-        <v>35267</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M18" s="7">
         <v>100</v>
@@ -4302,13 +4296,13 @@
         <v>71175</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,34 +4311,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>115</v>
+      </c>
+      <c r="D19" s="7">
+        <v>80922</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="7">
         <v>116</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>80960</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="7">
-        <v>115</v>
-      </c>
-      <c r="I19" s="7">
-        <v>80922</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>231</v>
@@ -4353,13 +4347,13 @@
         <v>161882</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,34 +4362,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7">
+        <v>20159</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="7">
         <v>36</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>24369</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H20" s="7">
-        <v>30</v>
-      </c>
-      <c r="I20" s="7">
-        <v>20159</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -4404,13 +4398,13 @@
         <v>44528</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,34 +4413,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>198</v>
+      </c>
+      <c r="D21" s="7">
+        <v>139363</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>213</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>148205</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>198</v>
-      </c>
-      <c r="I21" s="7">
-        <v>139363</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>411</v>
@@ -4455,51 +4449,51 @@
         <v>287568</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1443</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -4514,7 +4508,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,31 +4520,31 @@
         <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>4413</v>
+        <v>4886</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>4886</v>
+        <v>4413</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4559,13 +4553,13 @@
         <v>9299</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,34 +4568,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7">
+        <v>38989</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="7">
+        <v>57</v>
+      </c>
+      <c r="I24" s="7">
         <v>39177</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="7">
-        <v>55</v>
-      </c>
-      <c r="I24" s="7">
-        <v>38989</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -4610,13 +4604,13 @@
         <v>78167</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,34 +4619,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>121</v>
+      </c>
+      <c r="D25" s="7">
+        <v>85737</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="7">
         <v>120</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>81253</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H25" s="7">
-        <v>121</v>
-      </c>
-      <c r="I25" s="7">
-        <v>85737</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -4661,13 +4655,13 @@
         <v>166990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,34 +4670,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>32</v>
+      </c>
+      <c r="D26" s="7">
+        <v>21791</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="7">
         <v>58</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>39163</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="7">
-        <v>32</v>
-      </c>
-      <c r="I26" s="7">
-        <v>21791</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -4712,13 +4706,13 @@
         <v>60954</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,34 +4721,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>217</v>
+      </c>
+      <c r="D27" s="7">
+        <v>152846</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>242</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>164007</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>217</v>
-      </c>
-      <c r="I27" s="7">
-        <v>152846</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>459</v>
@@ -4763,13 +4757,13 @@
         <v>316852</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,34 +4774,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>682</v>
+        <v>1443</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>1443</v>
+        <v>682</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4816,13 +4810,13 @@
         <v>2125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,34 +4825,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7901</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" s="7">
         <v>16</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>10700</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H29" s="7">
-        <v>11</v>
-      </c>
-      <c r="I29" s="7">
-        <v>7901</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -4867,13 +4861,13 @@
         <v>18600</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,34 +4876,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7">
+        <v>74256</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="7">
         <v>108</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>75085</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="H30" s="7">
-        <v>104</v>
-      </c>
-      <c r="I30" s="7">
-        <v>74256</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M30" s="7">
         <v>212</v>
@@ -4918,13 +4912,13 @@
         <v>149341</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,31 +4930,31 @@
         <v>236</v>
       </c>
       <c r="D31" s="7">
-        <v>162213</v>
+        <v>166659</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H31" s="7">
         <v>236</v>
       </c>
       <c r="I31" s="7">
-        <v>166659</v>
+        <v>162213</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M31" s="7">
         <v>472</v>
@@ -4969,13 +4963,13 @@
         <v>328872</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,34 +4978,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>62</v>
+      </c>
+      <c r="D32" s="7">
+        <v>41949</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" s="7">
         <v>94</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>63532</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="H32" s="7">
-        <v>62</v>
-      </c>
-      <c r="I32" s="7">
-        <v>41949</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M32" s="7">
         <v>156</v>
@@ -5020,13 +5014,13 @@
         <v>105481</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,34 +5029,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>415</v>
+      </c>
+      <c r="D33" s="7">
+        <v>292209</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>455</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>312212</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>415</v>
-      </c>
-      <c r="I33" s="7">
-        <v>292209</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>870</v>
@@ -5071,18 +5065,18 @@
         <v>604421</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5102,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A18D348-B6F8-41EB-94FA-C2D656C19B08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920BBB73-3084-4356-9B61-EFE9C1455AAF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5119,7 +5113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,34 +5758,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1390</v>
+        <v>657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>657</v>
+        <v>1390</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5800,13 +5794,13 @@
         <v>2047</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,31 +5812,31 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2416</v>
+        <v>1948</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1948</v>
+        <v>2416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5851,13 +5845,13 @@
         <v>4364</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,34 +5860,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21600</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="7">
         <v>41</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>29632</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H18" s="7">
-        <v>30</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21600</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -5902,13 +5896,13 @@
         <v>51232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,34 +5911,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>130</v>
+      </c>
+      <c r="D19" s="7">
+        <v>89306</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="7">
         <v>88</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>61823</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="H19" s="7">
-        <v>130</v>
-      </c>
-      <c r="I19" s="7">
-        <v>89306</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>218</v>
@@ -5953,13 +5947,13 @@
         <v>151128</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,34 +5962,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7">
+        <v>58725</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H20" s="7">
         <v>95</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>68637</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="H20" s="7">
-        <v>82</v>
-      </c>
-      <c r="I20" s="7">
-        <v>58725</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>177</v>
@@ -6004,13 +5998,13 @@
         <v>127362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,34 +6013,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>246</v>
+      </c>
+      <c r="D21" s="7">
+        <v>172235</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>229</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>163898</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>246</v>
-      </c>
-      <c r="I21" s="7">
-        <v>172235</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>475</v>
@@ -6055,18 +6049,18 @@
         <v>336133</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6084,7 +6078,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6099,7 +6093,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6114,7 +6108,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,34 +6117,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2446</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>1740</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H23" s="7">
-        <v>4</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2446</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -6159,13 +6153,13 @@
         <v>4186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,34 +6168,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24790</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="7">
         <v>29</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>22574</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H24" s="7">
-        <v>35</v>
-      </c>
-      <c r="I24" s="7">
-        <v>24790</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -6210,13 +6204,13 @@
         <v>47364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,34 +6219,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>103</v>
+      </c>
+      <c r="D25" s="7">
+        <v>72763</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="7">
         <v>102</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>74873</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H25" s="7">
-        <v>103</v>
-      </c>
-      <c r="I25" s="7">
-        <v>72763</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -6261,13 +6255,13 @@
         <v>147636</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,34 +6270,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>74</v>
+      </c>
+      <c r="D26" s="7">
+        <v>51935</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H26" s="7">
         <v>85</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>62920</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H26" s="7">
-        <v>74</v>
-      </c>
-      <c r="I26" s="7">
-        <v>51935</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -6312,13 +6306,13 @@
         <v>114854</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,34 +6321,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>216</v>
+      </c>
+      <c r="D27" s="7">
+        <v>151933</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>218</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>162107</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>216</v>
-      </c>
-      <c r="I27" s="7">
-        <v>151933</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>434</v>
@@ -6363,13 +6357,13 @@
         <v>314040</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,34 +6374,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1390</v>
+        <v>657</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>338</v>
+        <v>62</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>657</v>
+        <v>1390</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6416,13 +6410,13 @@
         <v>2047</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,34 +6425,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4394</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>4156</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="7">
-        <v>7</v>
-      </c>
-      <c r="I29" s="7">
-        <v>4394</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6467,13 +6461,13 @@
         <v>8550</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,34 +6476,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>65</v>
+      </c>
+      <c r="D30" s="7">
+        <v>46390</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H30" s="7">
         <v>70</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>52207</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H30" s="7">
-        <v>65</v>
-      </c>
-      <c r="I30" s="7">
-        <v>46390</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>135</v>
@@ -6518,13 +6512,13 @@
         <v>98596</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,34 +6527,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>233</v>
+      </c>
+      <c r="D31" s="7">
+        <v>162068</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H31" s="7">
         <v>190</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>136696</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H31" s="7">
-        <v>233</v>
-      </c>
-      <c r="I31" s="7">
-        <v>162068</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M31" s="7">
         <v>423</v>
@@ -6569,13 +6563,13 @@
         <v>298764</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,34 +6578,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>156</v>
+      </c>
+      <c r="D32" s="7">
+        <v>110659</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H32" s="7">
         <v>180</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>131557</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H32" s="7">
-        <v>156</v>
-      </c>
-      <c r="I32" s="7">
-        <v>110659</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M32" s="7">
         <v>336</v>
@@ -6620,13 +6614,13 @@
         <v>242217</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,34 +6629,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>462</v>
+      </c>
+      <c r="D33" s="7">
+        <v>324168</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>447</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326006</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>462</v>
-      </c>
-      <c r="I33" s="7">
-        <v>324168</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>909</v>
@@ -6671,18 +6665,18 @@
         <v>650174</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6702,7 +6696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C574E2B-BAB1-4B30-B07E-948BF9BC357E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AB5915-08C6-4485-8689-9CBB054197CA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6719,7 +6713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7376,7 +7370,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7391,7 +7385,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7406,7 +7400,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,49 +7409,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2234</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1554</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>1623</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2213</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>3767</v>
+        <v>3857</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,49 +7460,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23110</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H18" s="7">
         <v>49</v>
       </c>
-      <c r="D18" s="7">
-        <v>39665</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>39079</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H18" s="7">
-        <v>34</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>392</v>
+        <v>206</v>
       </c>
       <c r="M18" s="7">
         <v>83</v>
       </c>
       <c r="N18" s="7">
-        <v>64274</v>
+        <v>62190</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,49 +7511,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>44</v>
+      </c>
+      <c r="D19" s="7">
+        <v>33307</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="7">
         <v>51</v>
       </c>
-      <c r="D19" s="7">
-        <v>42431</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>42611</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="H19" s="7">
-        <v>44</v>
-      </c>
-      <c r="I19" s="7">
-        <v>35529</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>95</v>
       </c>
       <c r="N19" s="7">
-        <v>77961</v>
+        <v>75918</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,49 +7562,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10105</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20" s="7">
         <v>17</v>
       </c>
-      <c r="D20" s="7">
-        <v>15698</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>16052</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="H20" s="7">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10282</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
       </c>
       <c r="N20" s="7">
-        <v>25980</v>
+        <v>26158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,54 +7613,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>68757</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
       <c r="I21" s="7">
-        <v>72634</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>215</v>
       </c>
       <c r="N21" s="7">
-        <v>171982</v>
+        <v>168122</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7684,7 +7678,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7699,7 +7693,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>29</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7714,7 +7708,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,49 +7717,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>416</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
-        <v>2050</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
       <c r="I23" s="7">
-        <v>418</v>
+        <v>1945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>2468</v>
+        <v>2361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,49 +7768,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7">
+        <v>34428</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H24" s="7">
         <v>61</v>
       </c>
-      <c r="D24" s="7">
-        <v>60502</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>64221</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="H24" s="7">
-        <v>54</v>
-      </c>
-      <c r="I24" s="7">
-        <v>36488</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
       </c>
       <c r="N24" s="7">
-        <v>96990</v>
+        <v>98649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,49 +7819,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>90</v>
+      </c>
+      <c r="D25" s="7">
+        <v>60987</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H25" s="7">
         <v>93</v>
       </c>
-      <c r="D25" s="7">
-        <v>80155</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>79577</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="H25" s="7">
-        <v>90</v>
-      </c>
-      <c r="I25" s="7">
-        <v>65167</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
       </c>
       <c r="N25" s="7">
-        <v>145322</v>
+        <v>140564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,49 +7870,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>30</v>
+      </c>
+      <c r="D26" s="7">
+        <v>46716</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H26" s="7">
         <v>32</v>
       </c>
-      <c r="D26" s="7">
-        <v>25983</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>27907</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="H26" s="7">
-        <v>30</v>
-      </c>
-      <c r="I26" s="7">
-        <v>28807</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>62</v>
       </c>
       <c r="N26" s="7">
-        <v>54790</v>
+        <v>74623</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,49 +7921,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>189</v>
       </c>
-      <c r="D27" s="7">
-        <v>168690</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>173651</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>364</v>
       </c>
       <c r="N27" s="7">
-        <v>299570</v>
+        <v>316198</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7992,7 +7986,7 @@
         <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8007,7 +8001,7 @@
         <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8022,7 +8016,7 @@
         <v>19</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,49 +8025,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2650</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
-        <v>3603</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="I29" s="7">
+        <v>3568</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H29" s="7">
-        <v>4</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2631</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
       </c>
       <c r="N29" s="7">
-        <v>6235</v>
+        <v>6218</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>222</v>
+        <v>453</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,49 +8076,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>88</v>
+      </c>
+      <c r="D30" s="7">
+        <v>57538</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H30" s="7">
         <v>110</v>
       </c>
-      <c r="D30" s="7">
-        <v>100167</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="I30" s="7">
+        <v>103300</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H30" s="7">
-        <v>88</v>
-      </c>
-      <c r="I30" s="7">
-        <v>61097</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
       </c>
       <c r="N30" s="7">
-        <v>161264</v>
+        <v>160839</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,49 +8127,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>134</v>
+      </c>
+      <c r="D31" s="7">
+        <v>94294</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H31" s="7">
         <v>144</v>
       </c>
-      <c r="D31" s="7">
-        <v>122587</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="I31" s="7">
+        <v>122188</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="H31" s="7">
-        <v>134</v>
-      </c>
-      <c r="I31" s="7">
-        <v>100696</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M31" s="7">
         <v>278</v>
       </c>
       <c r="N31" s="7">
-        <v>223283</v>
+        <v>216482</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,49 +8178,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>45</v>
+      </c>
+      <c r="D32" s="7">
+        <v>56822</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H32" s="7">
         <v>49</v>
       </c>
-      <c r="D32" s="7">
-        <v>41681</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="I32" s="7">
+        <v>43959</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="H32" s="7">
-        <v>45</v>
-      </c>
-      <c r="I32" s="7">
-        <v>39090</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M32" s="7">
         <v>94</v>
       </c>
       <c r="N32" s="7">
-        <v>80770</v>
+        <v>100781</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,54 +8229,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>271</v>
+      </c>
+      <c r="D33" s="7">
+        <v>211304</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>308</v>
       </c>
-      <c r="D33" s="7">
-        <v>268038</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="7">
-        <v>271</v>
-      </c>
       <c r="I33" s="7">
-        <v>203514</v>
+        <v>273016</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>579</v>
       </c>
       <c r="N33" s="7">
-        <v>471552</v>
+        <v>484320</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
